--- a/notes/CORE/Evaluation.xlsx
+++ b/notes/CORE/Evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dennismuller/Project-Management-Master/notes/CORE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53B8E231-C86E-2D46-BC08-A78F2C394A2E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFE75B7-00DC-CB4D-B410-4C82851E9488}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="440" windowWidth="25440" windowHeight="14340" xr2:uid="{E58CB9D8-7E07-064E-B5AA-75C1B7FAA395}"/>
+    <workbookView xWindow="80" yWindow="440" windowWidth="25440" windowHeight="14260" xr2:uid="{E58CB9D8-7E07-064E-B5AA-75C1B7FAA395}"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -25,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Section</t>
   </si>
   <si>
-    <t>Average Statisfaction by CORE</t>
-  </si>
-  <si>
-    <t>Number of questions</t>
-  </si>
-  <si>
     <t>CORE verbal range</t>
   </si>
   <si>
@@ -52,13 +46,67 @@
   </si>
   <si>
     <t>CORE Color</t>
+  </si>
+  <si>
+    <t>Average Statisfaction of Survery</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Statisfaction by CORE</t>
+  </si>
+  <si>
+    <t>Financial Frame</t>
+  </si>
+  <si>
+    <t>Important</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Usability</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Understanding the customer</t>
+  </si>
+  <si>
+    <t>First Survay:</t>
+  </si>
+  <si>
+    <t>Important to the Customer</t>
+  </si>
+  <si>
+    <t>Verbal range</t>
+  </si>
+  <si>
+    <t>Very Important</t>
+  </si>
+  <si>
+    <t>Not so important</t>
+  </si>
+  <si>
+    <t>Priority</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -89,8 +137,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,6 +179,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -122,12 +210,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -442,75 +537,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E543A77-4C52-BE49-993D-2CC07C8C08CF}">
-  <dimension ref="A6:E9"/>
+  <dimension ref="A2:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.83203125" customWidth="1"/>
-    <col min="2" max="2" width="40.33203125" customWidth="1"/>
-    <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="42.5" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="2" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
         <v>7</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>100</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C25" s="1"/>
+      <c r="D25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1">
         <v>100</v>
       </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="3"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1">
+        <v>100</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
